--- a/xlsx/a69_f28_bUPPachuca.xlsx
+++ b/xlsx/a69_f28_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -48,7 +43,7 @@
     <author>Lucy</author>
   </authors>
   <commentList>
-    <comment ref="AU116" authorId="0" shapeId="0">
+    <comment ref="AU116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="946">
   <si>
     <t>52276</t>
   </si>
@@ -2857,9 +2852,6 @@
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_b/SFP-CPF-01-0074-2022.pdf</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca7dir1/2022/Abril-Junio/28_b/Contratos/22-11.pdf</t>
-  </si>
-  <si>
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_b/Contratos/22-03%20POLICIA%20INDUSTRIAL%20BANCARIA.pdf</t>
   </si>
   <si>
@@ -2915,6 +2907,12 @@
   </si>
   <si>
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_b/Contratos/22-24%20ZEUS.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/28_b/Contratos/22-11.pdf</t>
+  </si>
+  <si>
+    <t>En el periodo que se informa, la Universidad Politécnica de Pachuca, que la adjudicación se hizo con una persona moral. No se cuenta con partida de obra pública. Las tablas adyacentes, hipervinculos y criterios que se encuentran vacios es porque no lo requiere este procedimiento</t>
   </si>
 </sst>
 </file>
@@ -3160,7 +3158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3195,7 +3193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3406,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH2" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" topLeftCell="AY2" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4319,7 +4317,7 @@
         <v>44655</v>
       </c>
       <c r="AY8" s="20" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="AZ8" s="3"/>
       <c r="BA8" s="3" t="s">
@@ -4346,7 +4344,7 @@
         <v>44753</v>
       </c>
       <c r="BN8" s="17" t="s">
-        <v>606</v>
+        <v>945</v>
       </c>
     </row>
     <row r="9" spans="1:66" ht="75" x14ac:dyDescent="0.25">
@@ -4479,7 +4477,7 @@
         <v>44658</v>
       </c>
       <c r="AY9" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AZ9" s="3"/>
       <c r="BA9" s="3" t="s">
@@ -4506,7 +4504,7 @@
         <v>44753</v>
       </c>
       <c r="BN9" s="17" t="s">
-        <v>606</v>
+        <v>945</v>
       </c>
     </row>
     <row r="10" spans="1:66" ht="105" x14ac:dyDescent="0.25">
@@ -5671,7 +5669,7 @@
         <v>44662</v>
       </c>
       <c r="AY17" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AZ17" s="3"/>
       <c r="BA17" s="3" t="s">
@@ -5835,7 +5833,7 @@
         <v>44662</v>
       </c>
       <c r="AY18" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AZ18" s="3"/>
       <c r="BA18" s="3" t="s">
@@ -5995,7 +5993,7 @@
         <v>44656</v>
       </c>
       <c r="AY19" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AZ19" s="3"/>
       <c r="BA19" s="3" t="s">
@@ -6461,7 +6459,7 @@
         <v>44663</v>
       </c>
       <c r="AY22" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AZ22" s="3"/>
       <c r="BA22" s="3" t="s">
@@ -6621,7 +6619,7 @@
         <v>44663</v>
       </c>
       <c r="AY23" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AZ23" s="3"/>
       <c r="BA23" s="3" t="s">
@@ -9223,7 +9221,7 @@
         <v>44662</v>
       </c>
       <c r="AY40" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AZ40" s="3"/>
       <c r="BA40" s="3" t="s">
@@ -9517,7 +9515,7 @@
         <v>44685</v>
       </c>
       <c r="AY42" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AZ42" s="3"/>
       <c r="BA42" s="3" t="s">
@@ -9681,7 +9679,7 @@
         <v>44685</v>
       </c>
       <c r="AY43" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AZ43" s="3"/>
       <c r="BA43" s="3" t="s">
@@ -9841,7 +9839,7 @@
         <v>44686</v>
       </c>
       <c r="AY44" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AZ44" s="3"/>
       <c r="BA44" s="3" t="s">
@@ -10005,7 +10003,7 @@
         <v>44686</v>
       </c>
       <c r="AY45" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AZ45" s="3"/>
       <c r="BA45" s="3" t="s">
@@ -10169,7 +10167,7 @@
         <v>44685</v>
       </c>
       <c r="AY46" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AZ46" s="3"/>
       <c r="BA46" s="3" t="s">
@@ -10329,7 +10327,7 @@
         <v>44684</v>
       </c>
       <c r="AY47" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AZ47" s="3"/>
       <c r="BA47" s="3" t="s">
@@ -11865,7 +11863,7 @@
         <v>44692</v>
       </c>
       <c r="AY57" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AZ57" s="3"/>
       <c r="BA57" s="3" t="s">
@@ -12029,7 +12027,7 @@
         <v>44692</v>
       </c>
       <c r="AY58" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AZ58" s="3"/>
       <c r="BA58" s="3" t="s">
@@ -12347,7 +12345,7 @@
         <v>44690</v>
       </c>
       <c r="AY60" s="20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AZ60" s="3"/>
       <c r="BA60" s="3" t="s">
@@ -12511,7 +12509,7 @@
         <v>44690</v>
       </c>
       <c r="AY61" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AZ61" s="3"/>
       <c r="BA61" s="3" t="s">
@@ -14967,7 +14965,7 @@
         <v>44685</v>
       </c>
       <c r="AY77" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AZ77" s="3"/>
       <c r="BA77" s="3" t="s">
@@ -15133,7 +15131,7 @@
         <v>44693</v>
       </c>
       <c r="AY78" s="20" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AZ78" s="3"/>
       <c r="BA78" s="3" t="s">
@@ -15593,7 +15591,7 @@
         <v>44698</v>
       </c>
       <c r="AY81" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AZ81" s="3"/>
       <c r="BA81" s="3" t="s">
@@ -15755,7 +15753,7 @@
         <v>44694</v>
       </c>
       <c r="AY82" s="20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AZ82" s="3"/>
       <c r="BA82" s="3" t="s">
@@ -17149,7 +17147,7 @@
         <v>44699</v>
       </c>
       <c r="AY91" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AZ91" s="3"/>
       <c r="BA91" s="3" t="s">
@@ -17457,7 +17455,7 @@
         <v>44704</v>
       </c>
       <c r="AY93" s="20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AZ93" s="3"/>
       <c r="BA93" s="3" t="s">
@@ -18065,7 +18063,7 @@
         <v>44706</v>
       </c>
       <c r="AY97" s="20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AZ97" s="3"/>
       <c r="BA97" s="3" t="s">
@@ -18831,7 +18829,7 @@
         <v>44714</v>
       </c>
       <c r="AY102" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AZ102" s="3"/>
       <c r="BA102" s="3" t="s">
@@ -21105,7 +21103,7 @@
         <v>44725</v>
       </c>
       <c r="AY117" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AZ117" s="3"/>
       <c r="BA117" s="3" t="s">
@@ -21269,7 +21267,7 @@
         <v>44725</v>
       </c>
       <c r="AY118" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AZ118" s="3"/>
       <c r="BA118" s="3" t="s">
@@ -21887,7 +21885,7 @@
         <v>44727</v>
       </c>
       <c r="AY122" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AZ122" s="3"/>
       <c r="BA122" s="3" t="s">
@@ -22813,7 +22811,7 @@
         <v>44729</v>
       </c>
       <c r="AY128" s="20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AZ128" s="3"/>
       <c r="BA128" s="3" t="s">
